--- a/tpl/import_events.xlsx
+++ b/tpl/import_events.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="19095" windowHeight="8460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="19095" windowHeight="8460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Добавить" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>event_name</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>event_id</t>
+  </si>
+  <si>
+    <t>sended</t>
   </si>
 </sst>
 </file>
@@ -584,10 +587,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -600,7 +603,7 @@
     <col min="8" max="8" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -625,53 +628,59 @@
       <c r="H1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="F2" s="3"/>
       <c r="G2" s="2">
         <v>44591.791666666664</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9">
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="7:7">
@@ -708,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
